--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Ictus (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Ictus (UPTO).xlsx
@@ -611,7 +611,7 @@
         <v>1.306117456590209</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0004415539729694446</v>
+        <v>0.0004415539729694447</v>
       </c>
       <c r="O2" t="n">
         <v>5.652747916578106</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.999601504078324</v>
+        <v>-4.999601504078322</v>
       </c>
       <c r="J3" t="n">
         <v>-0.2297804862146313</v>
@@ -709,7 +709,7 @@
         <v>5.246645571068518</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9569615258265375</v>
+        <v>0.9569615258265374</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>4.064409530739026</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5299334562097892</v>
+        <v>0.5299334562097893</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.926730437105241</v>
+        <v>-2.926730437105242</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.9851260711989297</v>
+        <v>-0.9851260711989299</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.067106681178082</v>
+        <v>-4.06710668117808</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.001640162220976515</v>
+        <v>-0.001640162220976293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0.0006915943282313483</v>
       </c>
       <c r="O4" t="n">
-        <v>6.063330638237033</v>
+        <v>6.063330638237032</v>
       </c>
       <c r="P4" t="n">
         <v>1.364999778746347</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.31533618936603</v>
+        <v>-1.315336189366031</v>
       </c>
       <c r="J5" t="n">
         <v>0.1036216571237141</v>
@@ -857,16 +857,16 @@
         <v>0.3355147874876305</v>
       </c>
       <c r="M5" t="n">
-        <v>0.618020711539837</v>
+        <v>0.6180207115398368</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0003452630231313463</v>
+        <v>0.0003452630231313462</v>
       </c>
       <c r="O5" t="n">
-        <v>2.494675662217983</v>
+        <v>2.494675662217982</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8320635040322502</v>
+        <v>0.8320635040322504</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>3.51874081017553</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7150025920877965</v>
+        <v>0.7150025920877964</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>3.068392703039673</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4250326601782264</v>
+        <v>0.4250326601782265</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>1.880814731469878</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.09822230846782017</v>
+        <v>0.09822230846782018</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>1.470187288812331</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.06980290045327356</v>
+        <v>0.06980290045327357</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6559923199505313</v>
+        <v>-0.6559923199505318</v>
       </c>
       <c r="G7" t="n">
         <v>0.1397843570148957</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6001244940223347</v>
+        <v>0.6001244940223356</v>
       </c>
       <c r="J7" t="n">
         <v>0.9791966131295655</v>
@@ -1079,22 +1079,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09722049983926961</v>
+        <v>0.09722049983926975</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4465198602515608</v>
+        <v>0.4465198602515599</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6195086831134161</v>
+        <v>0.619508683113416</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.512823772496347</v>
+        <v>2.51282377249635</v>
       </c>
       <c r="J8" t="n">
         <v>1.841800095965377</v>
@@ -1142,7 +1142,7 @@
         <v>1.403565648399783</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.04040899131157954</v>
+        <v>0.04040899131157953</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0.5634604810062251</v>
       </c>
       <c r="J9" t="n">
-        <v>0.624759670961226</v>
+        <v>0.6247596709612261</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>1.090468208649141</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0008301201437697921</v>
+        <v>0.000830120143769792</v>
       </c>
       <c r="O9" t="n">
         <v>4.588721904374984</v>
@@ -1207,7 +1207,7 @@
         <v>4.055082012428393</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6717792036484603</v>
+        <v>0.6717792036484602</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>1.649653599537159</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.07865118241747796</v>
+        <v>0.07865118241747797</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.077586475926525</v>
+        <v>1.077586475926524</v>
       </c>
       <c r="G10" t="n">
         <v>1.06137276178801</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4.363240644595555</v>
+        <v>4.363240644595557</v>
       </c>
       <c r="J10" t="n">
         <v>2.047415587144671</v>
@@ -1308,7 +1308,7 @@
         <v>1.135636514463827</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02878608623065574</v>
+        <v>0.02878608623065573</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.718510419512567</v>
+        <v>1.718510419512568</v>
       </c>
       <c r="G11" t="n">
         <v>1.237619707476153</v>
@@ -1361,7 +1361,7 @@
         <v>0.001961827740697296</v>
       </c>
       <c r="O11" t="n">
-        <v>6.34075550818666</v>
+        <v>6.340755508186661</v>
       </c>
       <c r="P11" t="n">
         <v>0.8826823589539496</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.302060168925804</v>
+        <v>3.302060168925805</v>
       </c>
       <c r="G12" t="n">
         <v>1.632046323296667</v>
@@ -1438,7 +1438,7 @@
         <v>5.746818551143122</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5135467545395432</v>
+        <v>0.513546754539543</v>
       </c>
       <c r="N12" t="n">
         <v>-0.0002698759628187367</v>
@@ -1447,7 +1447,7 @@
         <v>2.186668806121898</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3494138815725333</v>
+        <v>0.3494138815725332</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>1.694302860524273</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2834936811577583</v>
+        <v>0.2834936811577584</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.8806724312218498</v>
+        <v>0.8806724312218499</v>
       </c>
       <c r="Y12" t="n">
         <v>0.03871376344795844</v>
@@ -1527,10 +1527,10 @@
         <v>0.001938360200585128</v>
       </c>
       <c r="O13" t="n">
-        <v>7.302205654826941</v>
+        <v>7.302205654826942</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7847361525250354</v>
+        <v>0.7847361525250353</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>3.482567198712216</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3030846604967666</v>
+        <v>0.3030846604967667</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0.5978164780812381</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.008419793311478421</v>
+        <v>0.008419793311478414</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5449590860933138</v>
+        <v>0.5449590860933137</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>7.541642427609425</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9635064452659901</v>
+        <v>0.9635064452659899</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6918346471991407</v>
+        <v>0.6918346471991415</v>
       </c>
       <c r="G15" t="n">
         <v>0.5152808491234466</v>
@@ -1675,28 +1675,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.368929125346261</v>
+        <v>2.36892912534626</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4370238004620595</v>
+        <v>0.4370238004620594</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.660826548495679</v>
+        <v>1.66082654849568</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07999538168362696</v>
+        <v>0.07999538168362674</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0006713862983698816</v>
+        <v>-0.0006713862983698814</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2294834711845386</v>
+        <v>0.2294834711845377</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3933666295709807</v>
+        <v>0.3933666295709808</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>2.072375875340319</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3201318641466637</v>
+        <v>0.3201318641466638</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>1.451111851451321</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.07830604604603585</v>
+        <v>0.07830604604603586</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5880700248907517</v>
+        <v>0.588070024890752</v>
       </c>
       <c r="G16" t="n">
         <v>0.5423559268760145</v>
@@ -1761,7 +1761,7 @@
         <v>2.405593138362371</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7914607426303987</v>
+        <v>0.7914607426303988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>3.279906255793083</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8214555437210359</v>
+        <v>0.8214555437210358</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0003217954830191782</v>
+        <v>0.0003217954830191784</v>
       </c>
       <c r="O16" t="n">
         <v>3.456125808858262</v>
@@ -1788,7 +1788,7 @@
         <v>3.191129631981899</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5507997367790899</v>
+        <v>0.5507997367790898</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>2.444421314410955</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3089015052299015</v>
+        <v>0.3089015052299016</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.740956627612915</v>
+        <v>5.740956627612916</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5624044175790204</v>
+        <v>0.5624044175790202</v>
       </c>
       <c r="N17" t="n">
         <v>-0.001730270485571455</v>
       </c>
       <c r="O17" t="n">
-        <v>2.596972268373266</v>
+        <v>2.596972268373265</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4030751373356802</v>
+        <v>0.4030751373356801</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>1.492721995445009</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1834663345633992</v>
+        <v>0.1834663345633991</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0.9514426897907522</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.04093346194133397</v>
+        <v>0.04093346194133396</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -1918,13 +1918,13 @@
         <v>-2.587243032533288</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.9932710252395346</v>
+        <v>-0.9932710252395348</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-4.07262949100679</v>
+        <v>-4.072629491006788</v>
       </c>
       <c r="J18" t="n">
         <v>-0.02758310856105717</v>
@@ -1939,19 +1939,19 @@
         <v>1.447234660870111</v>
       </c>
       <c r="N18" t="n">
-        <v>-3.86029331450108e-05</v>
+        <v>-3.860293314501113e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>6.268482369362717</v>
+        <v>6.268482369362716</v>
       </c>
       <c r="P18" t="n">
-        <v>1.39183040662792</v>
+        <v>1.391830406627921</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5.848649677414574</v>
+        <v>5.848649677414575</v>
       </c>
       <c r="S18" t="n">
         <v>0.9689686805731716</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.168849566864331</v>
+        <v>4.168849566864333</v>
       </c>
       <c r="G19" t="n">
         <v>2.092840525683224</v>
@@ -2019,25 +2019,25 @@
         <v>8.030019619827101</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9737798358889778</v>
+        <v>0.9737798358889777</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0005800797885078888</v>
+        <v>0.0005800797885078889</v>
       </c>
       <c r="O19" t="n">
         <v>4.178139182716059</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4574007984334669</v>
+        <v>0.4574007984334668</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.156458839394998</v>
+        <v>2.156458839394997</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2327994373925772</v>
+        <v>0.2327994373925773</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.6318187346469045</v>
+        <v>0.6318187346469046</v>
       </c>
       <c r="Y19" t="n">
         <v>0.01858771277427235</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3.208152874528493</v>
+        <v>3.208152874528494</v>
       </c>
       <c r="G20" t="n">
         <v>1.393504268062783</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.084335643245955</v>
+        <v>6.084335643245954</v>
       </c>
       <c r="J20" t="n">
         <v>1.098919939628663</v>
@@ -2102,7 +2102,7 @@
         <v>4.60228705503603</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3078590453845647</v>
+        <v>0.3078590453845642</v>
       </c>
       <c r="N20" t="n">
         <v>-0.001425051099858409</v>
@@ -2111,7 +2111,7 @@
         <v>1.396085348950502</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3222510510236399</v>
+        <v>0.3222510510236398</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2167,13 +2167,13 @@
         <v>1.294973048454382</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7416054732964228</v>
+        <v>0.7416054732964229</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.306946758075212</v>
+        <v>3.306946758075211</v>
       </c>
       <c r="J21" t="n">
         <v>0.6911070707957951</v>
@@ -2185,16 +2185,16 @@
         <v>2.800961601955118</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3223263381182138</v>
+        <v>0.3223263381182133</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.0006115070533947486</v>
+        <v>-0.0006115070533947484</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32779452504446</v>
+        <v>1.327794525044459</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4607754019422343</v>
+        <v>0.4607754019422344</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>9.466853581340999</v>
       </c>
       <c r="M22" t="n">
-        <v>2.471167452697444</v>
+        <v>2.471167452697445</v>
       </c>
       <c r="N22" t="n">
         <v>0.003379987397749668</v>
       </c>
       <c r="O22" t="n">
-        <v>10.56313303415746</v>
+        <v>10.56313303415747</v>
       </c>
       <c r="P22" t="n">
         <v>1.277426485416772</v>
@@ -2286,13 +2286,13 @@
         <v>5.441549949040566</v>
       </c>
       <c r="S22" t="n">
-        <v>0.519696472352917</v>
+        <v>0.5196964723529172</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2.472570235818141</v>
+        <v>2.47257023581814</v>
       </c>
       <c r="V22" t="n">
         <v>0.1606187720211961</v>
@@ -2304,7 +2304,7 @@
         <v>0.903092509812323</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.01827303039641969</v>
+        <v>0.01827303039641968</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2339,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.200016163044991</v>
+        <v>4.20001616304499</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5518389794510705</v>
+        <v>0.5518389794510704</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2351,16 +2351,16 @@
         <v>2.317620505469498</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.1401596202050006</v>
+        <v>-0.1401596202050011</v>
       </c>
       <c r="N23" t="n">
         <v>-0.002640105481873214</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.4928091620808157</v>
+        <v>-0.4928091620808175</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2276794481034929</v>
+        <v>0.2276794481034928</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2407,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09540193964456239</v>
+        <v>0.09540193964456237</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4183263226047749</v>
+        <v>0.4183263226047755</v>
       </c>
       <c r="G24" t="n">
         <v>0.5464284038963171</v>
@@ -2434,16 +2434,16 @@
         <v>3.281371736675635</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8092411279611667</v>
+        <v>0.8092411279611664</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0006868941137073576</v>
+        <v>0.0006868941137073577</v>
       </c>
       <c r="O24" t="n">
         <v>3.353549943295421</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7207019836625491</v>
+        <v>0.7207019836625492</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>1.417109594885654</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.06813812658324192</v>
+        <v>0.06813812658324193</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3297636624448632</v>
+        <v>-0.3297636624448633</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.522781717889059</v>
+        <v>-1.52278171788906</v>
       </c>
       <c r="G25" t="n">
         <v>-0.3210098453716618</v>
@@ -2520,10 +2520,10 @@
         <v>1.371695289337115</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0009733461738322266</v>
+        <v>0.0009733461738322265</v>
       </c>
       <c r="O25" t="n">
-        <v>5.823893865454549</v>
+        <v>5.823893865454548</v>
       </c>
       <c r="P25" t="n">
         <v>1.186229486005392</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.993219616257026</v>
+        <v>4.993219616257027</v>
       </c>
       <c r="S25" t="n">
         <v>0.8002295258436758</v>
@@ -2553,7 +2553,7 @@
         <v>1.882197604188663</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.089164238251714</v>
+        <v>0.08916423825171402</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -2573,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4215923703149158</v>
+        <v>0.4215923703149157</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.973947857598288</v>
+        <v>1.973947857598289</v>
       </c>
       <c r="G26" t="n">
         <v>0.725315565215213</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3.295901138417796</v>
+        <v>3.295901138417795</v>
       </c>
       <c r="J26" t="n">
         <v>0.6392211781156336</v>
@@ -2600,13 +2600,13 @@
         <v>2.795099678424911</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3711840011576908</v>
+        <v>0.3711840011576906</v>
       </c>
       <c r="N26" t="n">
         <v>-0.002071901576147467</v>
       </c>
       <c r="O26" t="n">
-        <v>1.738097987295828</v>
+        <v>1.738097987295827</v>
       </c>
       <c r="P26" t="n">
         <v>0.5144366577053813</v>
@@ -2686,13 +2686,13 @@
         <v>1.189429083830046</v>
       </c>
       <c r="N27" t="n">
-        <v>0.000191513617707541</v>
+        <v>0.0001915136177075414</v>
       </c>
       <c r="O27" t="n">
         <v>5.24216519491918</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3728699059453394</v>
+        <v>0.3728699059453392</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -2701,13 +2701,13 @@
         <v>1.903032884583506</v>
       </c>
       <c r="S27" t="n">
-        <v>0.07606743740971555</v>
+        <v>0.07606743740971567</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.6201602078967599</v>
+        <v>0.6201602078967601</v>
       </c>
       <c r="V27" t="n">
         <v>-0.009266724553277483</v>
@@ -2719,7 +2719,7 @@
         <v>0.2034987273471316</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.01038661986361814</v>
+        <v>-0.01038661986361815</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>6.477616415406303</v>
       </c>
       <c r="P28" t="n">
-        <v>1.048037337754117</v>
+        <v>1.048037337754118</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>4.443052767916979</v>
       </c>
       <c r="S28" t="n">
-        <v>0.6136141045574344</v>
+        <v>0.6136141045574343</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7865218203085753</v>
+        <v>0.7865218203085755</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.042148820401136</v>
+        <v>6.042148820401135</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7185400511202432</v>
+        <v>0.7185400511202431</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>2.980276385973522</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.4091722851331057</v>
+        <v>-0.4091722851331061</v>
       </c>
       <c r="N29" t="n">
         <v>-0.003148430142623827</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.625405257597539</v>
+        <v>-1.62540525759754</v>
       </c>
       <c r="P29" t="n">
-        <v>0.008331010872858147</v>
+        <v>0.008331010872858036</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>0.3596721819181092</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2609681459136942</v>
+        <v>0.2609681459136943</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>1.092179230001666</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.06060948211762706</v>
+        <v>0.06060948211762705</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5.18022061861876</v>
+        <v>5.180220618618759</v>
       </c>
       <c r="J30" t="n">
         <v>1.186302138293226</v>
@@ -2932,10 +2932,10 @@
         <v>5.079766227991443</v>
       </c>
       <c r="M30" t="n">
-        <v>0.8192026667472561</v>
+        <v>0.8192026667472559</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.0008568471941326617</v>
+        <v>-0.0008568471941326614</v>
       </c>
       <c r="O30" t="n">
         <v>3.626992498327146</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.860325907378821</v>
+        <v>1.86032590737882</v>
       </c>
       <c r="G31" t="n">
         <v>1.018007775954233</v>
@@ -3042,7 +3042,7 @@
         <v>2.751817490772794</v>
       </c>
       <c r="V31" t="n">
-        <v>0.2404509629984999</v>
+        <v>0.2404509629984998</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>1.222716464956171</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.04061877956348131</v>
+        <v>0.0406187795634813</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3047043723853073</v>
+        <v>0.3047043723853069</v>
       </c>
       <c r="G32" t="n">
         <v>0.8391206146353366</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3.427984416780958</v>
+        <v>3.42798441678096</v>
       </c>
       <c r="J32" t="n">
         <v>1.806303789980975</v>
@@ -3101,10 +3101,10 @@
         <v>2.497849161190963</v>
       </c>
       <c r="N32" t="n">
-        <v>0.00382843281352515</v>
+        <v>0.003828432813525149</v>
       </c>
       <c r="O32" t="n">
-        <v>10.59741807581426</v>
+        <v>10.59741807581427</v>
       </c>
       <c r="P32" t="n">
         <v>1.429366150276153</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>7.846308393161043</v>
+        <v>7.846308393161042</v>
       </c>
       <c r="M33" t="n">
         <v>1.741921706419905</v>
@@ -3187,10 +3187,10 @@
         <v>0.002021706985672429</v>
       </c>
       <c r="O33" t="n">
-        <v>7.439066562046583</v>
+        <v>7.439066562046584</v>
       </c>
       <c r="P33" t="n">
-        <v>0.9500911313252033</v>
+        <v>0.9500911313252032</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>9.808026375888712</v>
+        <v>9.80802637588871</v>
       </c>
       <c r="J34" t="n">
         <v>1.799730498305388</v>
@@ -3264,7 +3264,7 @@
         <v>7.548144004224033</v>
       </c>
       <c r="M34" t="n">
-        <v>0.4990794618058941</v>
+        <v>0.4990794618058939</v>
       </c>
       <c r="N34" t="n">
         <v>-0.001083420009282397</v>
@@ -3273,7 +3273,7 @@
         <v>2.25495963002794</v>
       </c>
       <c r="P34" t="n">
-        <v>0.2108895306539388</v>
+        <v>0.2108895306539387</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3282,16 +3282,16 @@
         <v>1.209798916277419</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1521088030574872</v>
+        <v>0.1521088030574873</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.8550899541180055</v>
+        <v>0.8550899541180057</v>
       </c>
       <c r="V34" t="n">
-        <v>0.09109984105896593</v>
+        <v>0.0910998410589659</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3300,7 +3300,7 @@
         <v>0.5767792722095495</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.019802456146911</v>
+        <v>0.01980245614691099</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -3329,13 +3329,13 @@
         <v>1.728367747423646</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9720025744897014</v>
+        <v>0.9720025744897016</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.247725795718518</v>
+        <v>4.247725795718516</v>
       </c>
       <c r="J35" t="n">
         <v>0.9581618142995714</v>
@@ -3347,10 +3347,10 @@
         <v>3.942562136297108</v>
       </c>
       <c r="M35" t="n">
-        <v>0.552442878792931</v>
+        <v>0.5524428787929307</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.000186529177731436</v>
+        <v>-0.0001865291777314356</v>
       </c>
       <c r="O35" t="n">
         <v>2.32352971334154</v>
@@ -3383,7 +3383,7 @@
         <v>1.219950719518601</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.05873491999569364</v>
+        <v>0.05873491999569365</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.8257360222365078</v>
+        <v>-0.8257360222365082</v>
       </c>
       <c r="G36" t="n">
         <v>0.1438568340351981</v>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6028858989366888</v>
+        <v>0.6028858989366896</v>
       </c>
       <c r="J36" t="n">
         <v>0.9921680862996058</v>
@@ -3430,7 +3430,7 @@
         <v>4.237795563469014</v>
       </c>
       <c r="M36" t="n">
-        <v>1.81971395492668</v>
+        <v>1.819713954926681</v>
       </c>
       <c r="N36" t="n">
         <v>0.002188400555847032</v>
@@ -3457,7 +3457,7 @@
         <v>3.283818311296145</v>
       </c>
       <c r="V36" t="n">
-        <v>0.3468912575199686</v>
+        <v>0.3468912575199687</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>1.615651342971492</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.06848326295468403</v>
+        <v>0.06848326295468404</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.774758175559229</v>
+        <v>2.77475817555923</v>
       </c>
       <c r="G37" t="n">
         <v>1.163107166869505</v>
@@ -3501,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5.14355660560265</v>
+        <v>5.143556605602649</v>
       </c>
       <c r="J37" t="n">
-        <v>0.831865196124887</v>
+        <v>0.8318651961248871</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3513,16 +3513,16 @@
         <v>3.460686520694039</v>
       </c>
       <c r="M37" t="n">
-        <v>0.07774250470984723</v>
+        <v>0.07774250470984678</v>
       </c>
       <c r="N37" t="n">
         <v>-0.001850028975521722</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4003501606534225</v>
+        <v>0.4003501606534208</v>
       </c>
       <c r="P37" t="n">
-        <v>0.2682575925931731</v>
+        <v>0.2682575925931729</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>1.380517328417826</v>
       </c>
       <c r="S37" t="n">
-        <v>0.3491296355746292</v>
+        <v>0.3491296355746293</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3599,22 +3599,22 @@
         <v>1.252754039603172</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.0004553368585815167</v>
+        <v>-0.0004553368585815165</v>
       </c>
       <c r="O38" t="n">
         <v>5.584177833264507</v>
       </c>
       <c r="P38" t="n">
-        <v>0.5650555126270808</v>
+        <v>0.5650555126270806</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2.684277722358915</v>
+        <v>2.684277722358916</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2373357368133664</v>
+        <v>0.2373357368133666</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         <v>1.257792249223763</v>
       </c>
       <c r="V38" t="n">
-        <v>0.08309976895115578</v>
+        <v>0.08309976895115573</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0.5781621449283343</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.01074438593080483</v>
+        <v>0.01074438593080481</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>4.612101593744674</v>
+        <v>4.612101593744676</v>
       </c>
       <c r="G39" t="n">
         <v>2.057620493890052</v>
@@ -3679,7 +3679,7 @@
         <v>6.408008950764596</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2567485053713077</v>
+        <v>0.2567485053713072</v>
       </c>
       <c r="N39" t="n">
         <v>-0.00114329925425753</v>
@@ -3688,7 +3688,7 @@
         <v>1.156648576168018</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1434807582826853</v>
+        <v>0.1434807582826851</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9027430134899648</v>
+        <v>0.902743013489965</v>
       </c>
       <c r="V39" t="n">
         <v>0.1213250761207617</v>
@@ -3735,13 +3735,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1426482571516349</v>
+        <v>-0.142648257151635</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6461349920394528</v>
+        <v>-0.6461349920394532</v>
       </c>
       <c r="G40" t="n">
         <v>-0.125832775971556</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.3828413664657879</v>
+        <v>-0.3828413664657888</v>
       </c>
       <c r="J40" t="n">
         <v>0.331761981117369</v>
@@ -3762,22 +3762,22 @@
         <v>1.472718879181966</v>
       </c>
       <c r="M40" t="n">
-        <v>0.8847804994941622</v>
+        <v>0.884780499494162</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.0003250549932698796</v>
+        <v>-0.0003250549932698798</v>
       </c>
       <c r="O40" t="n">
         <v>3.798138447203588</v>
       </c>
       <c r="P40" t="n">
-        <v>0.9263029042850772</v>
+        <v>0.9263029042850773</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.972374469757308</v>
+        <v>3.972374469757309</v>
       </c>
       <c r="S40" t="n">
         <v>0.7120680361827407</v>
@@ -3798,7 +3798,7 @@
         <v>1.809465577109083</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.08982405700100876</v>
+        <v>0.08982405700100878</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.456802637911472</v>
+        <v>-1.456802637911473</v>
       </c>
       <c r="G41" t="n">
         <v>-0.2980072446393963</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.247530973162519</v>
+        <v>-1.247530973162517</v>
       </c>
       <c r="J41" t="n">
         <v>0.7865525951203119</v>
@@ -3845,7 +3845,7 @@
         <v>3.570743240317334</v>
       </c>
       <c r="M41" t="n">
-        <v>2.125369867134393</v>
+        <v>2.125369867134394</v>
       </c>
       <c r="N41" t="n">
         <v>0.001601429324533107</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>6.467698422338522</v>
+        <v>6.467698422338523</v>
       </c>
       <c r="S41" t="n">
         <v>0.8854564595995551</v>
@@ -3881,7 +3881,7 @@
         <v>1.883580476907448</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.08010616803560783</v>
+        <v>0.08010616803560784</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3.198295546617414</v>
+        <v>3.198295546617415</v>
       </c>
       <c r="G42" t="n">
         <v>1.659121401049235</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.067301503734079</v>
+        <v>7.067301503734078</v>
       </c>
       <c r="J42" t="n">
         <v>1.74635457164086</v>
@@ -3931,13 +3931,13 @@
         <v>1.255006916576952</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0007233058185703229</v>
+        <v>0.0007233058185703232</v>
       </c>
       <c r="O42" t="n">
         <v>5.413311143795623</v>
       </c>
       <c r="P42" t="n">
-        <v>0.6901645496048885</v>
+        <v>0.6901645496048884</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.177459213704406</v>
+        <v>5.177459213704405</v>
       </c>
       <c r="J43" t="n">
         <v>1.173330665123186</v>
@@ -4011,13 +4011,13 @@
         <v>5.078300747108891</v>
       </c>
       <c r="M43" t="n">
-        <v>0.8314170825071254</v>
+        <v>0.8314170825071252</v>
       </c>
       <c r="N43" t="n">
         <v>-0.001221945824820841</v>
       </c>
       <c r="O43" t="n">
-        <v>3.729568363889988</v>
+        <v>3.729568363889987</v>
       </c>
       <c r="P43" t="n">
         <v>0.6224235745663149</v>
@@ -4029,7 +4029,7 @@
         <v>2.854996134499323</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4343565693305085</v>
+        <v>0.4343565693305086</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>1.990730409294686</v>
       </c>
       <c r="V43" t="n">
-        <v>0.2359167325791806</v>
+        <v>0.2359167325791805</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>1.166294129800031</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.05089159315222613</v>
+        <v>0.05089159315222612</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.2984677207761526</v>
+        <v>-0.2984677207761499</v>
       </c>
       <c r="J44" t="n">
         <v>1.092521758134209</v>
@@ -4100,7 +4100,7 @@
         <v>0.003121703092260958</v>
       </c>
       <c r="O44" t="n">
-        <v>9.841119660299668</v>
+        <v>9.84111966029967</v>
       </c>
       <c r="P44" t="n">
         <v>1.554142984586641</v>
@@ -4177,16 +4177,16 @@
         <v>8.686813576800919</v>
       </c>
       <c r="M45" t="n">
-        <v>0.75362483400035</v>
+        <v>0.7536248340003499</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.001388639394995444</v>
+        <v>-0.001388639394995443</v>
       </c>
       <c r="O45" t="n">
         <v>3.455846549450704</v>
       </c>
       <c r="P45" t="n">
-        <v>0.2917136169659791</v>
+        <v>0.291713616965979</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -4195,16 +4195,16 @@
         <v>1.589247352477059</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1417033918265865</v>
+        <v>0.1417033918265866</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.8380937507811683</v>
+        <v>0.8380937507811685</v>
       </c>
       <c r="V45" t="n">
-        <v>0.06410489280612222</v>
+        <v>0.06410489280612217</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0.4877375532065281</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.01084928005675572</v>
+        <v>0.0108492800567557</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7200281848459269</v>
+        <v>0.7200281848459258</v>
       </c>
       <c r="G46" t="n">
         <v>0.5883611283405457</v>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.473398354565882</v>
+        <v>2.473398354565884</v>
       </c>
       <c r="J46" t="n">
         <v>1.474391680626997</v>
@@ -4296,7 +4296,7 @@
         <v>1.43756790496545</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.05057691077437347</v>
+        <v>0.05057691077437346</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -4343,13 +4343,13 @@
         <v>10.12511301919737</v>
       </c>
       <c r="M47" t="n">
-        <v>2.238798035048947</v>
+        <v>2.238798035048948</v>
       </c>
       <c r="N47" t="n">
         <v>0.001776366844934516</v>
       </c>
       <c r="O47" t="n">
-        <v>9.738264535329268</v>
+        <v>9.73826453532927</v>
       </c>
       <c r="P47" t="n">
         <v>1.098323990008497</v>
@@ -4376,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>0.7413187637297209</v>
+        <v>0.7413187637297211</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.009979673055559184</v>
+        <v>0.009979673055559163</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>3.641547573497757</v>
+        <v>3.641547573497758</v>
       </c>
       <c r="G48" t="n">
         <v>1.623901369256062</v>
@@ -4426,7 +4426,7 @@
         <v>5.743887589378019</v>
       </c>
       <c r="M48" t="n">
-        <v>0.5379755860592819</v>
+        <v>0.5379755860592815</v>
       </c>
       <c r="N48" t="n">
         <v>-0.001000073224195096</v>
@@ -4435,7 +4435,7 @@
         <v>2.391820537247582</v>
       </c>
       <c r="P48" t="n">
-        <v>0.3762445094541068</v>
+        <v>0.3762445094541066</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.4943060835734729</v>
+        <v>-0.494306083573473</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>3.488091201482268</v>
       </c>
       <c r="V49" t="n">
-        <v>0.44402753632326</v>
+        <v>0.4440275363232601</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>1.971239323191685</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.09811741434186928</v>
+        <v>0.0981174143418693</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>2.435270770987275</v>
+        <v>2.435270770987277</v>
       </c>
       <c r="G50" t="n">
         <v>1.17125212091011</v>
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>5.149079415431358</v>
+        <v>5.149079415431357</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8578081424649677</v>
+        <v>0.8578081424649678</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -4592,13 +4592,13 @@
         <v>3.463617482459143</v>
       </c>
       <c r="M50" t="n">
-        <v>0.05331367319010871</v>
+        <v>0.05331367319010827</v>
       </c>
       <c r="N50" t="n">
         <v>-0.001119831714145362</v>
       </c>
       <c r="O50" t="n">
-        <v>0.1951984295277382</v>
+        <v>0.1951984295277374</v>
       </c>
       <c r="P50" t="n">
         <v>0.2414269647115995</v>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>1.232146881653549</v>
+        <v>1.232146881653548</v>
       </c>
       <c r="S50" t="n">
         <v>0.3341879249229394</v>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.529868838360481</v>
+        <v>-3.529868838360482</v>
       </c>
       <c r="G51" t="n">
         <v>-1.211450695371906</v>
@@ -4663,10 +4663,10 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-5.005124313907032</v>
+        <v>-5.00512431390703</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.255723432554712</v>
+        <v>-0.2557234325547122</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -4678,13 +4678,13 @@
         <v>1.180474872915786</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0006317150832562153</v>
+        <v>0.000631715083256215</v>
       </c>
       <c r="O51" t="n">
-        <v>4.965019584377111</v>
+        <v>4.96501958437711</v>
       </c>
       <c r="P51" t="n">
-        <v>1.297591006375093</v>
+        <v>1.297591006375094</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>5.395016017832797</v>
       </c>
       <c r="S51" t="n">
-        <v>0.9719032364782274</v>
+        <v>0.9719032364782273</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>2.345902740772887</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.1192484201362922</v>
+        <v>0.1192484201362923</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.099244346830874</v>
+        <v>-1.099244346830875</v>
       </c>
       <c r="G52" t="n">
         <v>0.1750043888080685</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6423113168671528</v>
+        <v>0.642311316867155</v>
       </c>
       <c r="J52" t="n">
         <v>1.359576501637986</v>
@@ -4767,7 +4767,7 @@
         <v>10.83685484859675</v>
       </c>
       <c r="P52" t="n">
-        <v>1.608136443017107</v>
+        <v>1.608136443017108</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -4841,16 +4841,16 @@
         <v>6.40361250811694</v>
       </c>
       <c r="M53" t="n">
-        <v>0.2933917526509153</v>
+        <v>0.2933917526509151</v>
       </c>
       <c r="N53" t="n">
         <v>-0.002238595146322069</v>
       </c>
       <c r="O53" t="n">
-        <v>1.464376172856544</v>
+        <v>1.464376172856543</v>
       </c>
       <c r="P53" t="n">
-        <v>0.1837267001050454</v>
+        <v>0.1837267001050453</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>0.9947135815953319</v>
+        <v>0.9947135815953321</v>
       </c>
       <c r="V53" t="n">
         <v>0.1310159365476178</v>
@@ -4877,7 +4877,7 @@
         <v>0.7365912497814734</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.03097533073044181</v>
+        <v>0.0309753307304418</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.031322051771094</v>
+        <v>1.031322051771095</v>
       </c>
       <c r="G54" t="n">
         <v>0.5071358950828416</v>
@@ -4912,10 +4912,10 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>2.363406315517553</v>
+        <v>2.363406315517552</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4110808541219786</v>
+        <v>0.4110808541219785</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -4924,13 +4924,13 @@
         <v>1.657895586730576</v>
       </c>
       <c r="M54" t="n">
-        <v>0.1044242132033657</v>
+        <v>0.1044242132033655</v>
       </c>
       <c r="N54" t="n">
         <v>-0.001401583559746241</v>
       </c>
       <c r="O54" t="n">
-        <v>0.434635202310222</v>
+        <v>0.4346352023102211</v>
       </c>
       <c r="P54" t="n">
         <v>0.4201972574525542</v>
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>1.939206496046819</v>
+        <v>1.93920649604682</v>
       </c>
       <c r="S54" t="n">
         <v>0.4879853690007454</v>
@@ -4960,7 +4960,7 @@
         <v>1.486496980735772</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.07941589529272361</v>
+        <v>0.07941589529272362</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.464716750740358</v>
+        <v>1.464716750740359</v>
       </c>
       <c r="G55" t="n">
         <v>0.7375329962761203</v>
@@ -4995,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>3.304185353160858</v>
+        <v>3.304185353160857</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6781355976257547</v>
+        <v>0.6781355976257548</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -5007,10 +5007,10 @@
         <v>2.799496121072566</v>
       </c>
       <c r="M55" t="n">
-        <v>0.3345407538780829</v>
+        <v>0.3345407538780827</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.0009766056840829281</v>
+        <v>-0.0009766056840829276</v>
       </c>
       <c r="O55" t="n">
         <v>1.430370390607302</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.4356069464542977</v>
+        <v>0.4356069464542978</v>
       </c>
     </row>
     <row r="56">
@@ -5096,7 +5096,7 @@
         <v>0.002895130277111223</v>
       </c>
       <c r="O56" t="n">
-        <v>8.469086792000462</v>
+        <v>8.469086792000464</v>
       </c>
       <c r="P56" t="n">
         <v>1.156024254615051</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4744480746712842</v>
+        <v>0.4744480746712838</v>
       </c>
       <c r="G57" t="n">
         <v>0.8350481376150342</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>3.425223011866604</v>
+        <v>3.425223011866606</v>
       </c>
       <c r="J57" t="n">
         <v>1.793332316810935</v>
@@ -5173,7 +5173,7 @@
         <v>7.662597166494983</v>
       </c>
       <c r="M57" t="n">
-        <v>2.510063576950832</v>
+        <v>2.510063576950833</v>
       </c>
       <c r="N57" t="n">
         <v>0.00346333418283697</v>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>3.0488885650749</v>
+        <v>3.048888565074899</v>
       </c>
       <c r="V57" t="n">
         <v>0.2465246919077252</v>
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>5.140795200688296</v>
+        <v>5.140795200688295</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8188937229548465</v>
+        <v>0.8188937229548466</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>3.459221039811488</v>
       </c>
       <c r="M58" t="n">
-        <v>0.08995692046971659</v>
+        <v>0.08995692046971615</v>
       </c>
       <c r="N58" t="n">
         <v>-0.002215127606209901</v>
@@ -5265,7 +5265,7 @@
         <v>0.5029260262162634</v>
       </c>
       <c r="P58" t="n">
-        <v>0.2816729065339598</v>
+        <v>0.2816729065339597</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>1.182603821723472</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.06050458799167618</v>
+        <v>0.06050458799167617</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>3.377513379193078</v>
+        <v>3.377513379193079</v>
       </c>
       <c r="J59" t="n">
         <v>1.387009481962433</v>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2.001876072018011</v>
+        <v>2.001876072018013</v>
       </c>
       <c r="G60" t="n">
         <v>0.9408550197168311</v>
@@ -5410,25 +5410,25 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>4.208300377788053</v>
+        <v>4.208300377788052</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5907533989611917</v>
+        <v>0.5907533989611916</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>2.322016948117152</v>
+        <v>2.322016948117153</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.1768028674846087</v>
+        <v>-0.1768028674846089</v>
       </c>
       <c r="N60" t="n">
         <v>-0.001544809589808675</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.8005367587693417</v>
+        <v>-0.8005367587693426</v>
       </c>
       <c r="P60" t="n">
         <v>0.1874335062811326</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>1.001068892218187</v>
+        <v>1.001068892218186</v>
       </c>
       <c r="S60" t="n">
         <v>0.3595350468055299</v>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>3.631690245586678</v>
+        <v>3.631690245586679</v>
       </c>
       <c r="G61" t="n">
         <v>1.889518502242514</v>
@@ -5511,10 +5511,10 @@
         <v>0.001148283694233636</v>
       </c>
       <c r="O61" t="n">
-        <v>6.409046332092703</v>
+        <v>6.409046332092704</v>
       </c>
       <c r="P61" t="n">
-        <v>0.7441580080353553</v>
+        <v>0.7441580080353551</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>3.325674432658992</v>
       </c>
       <c r="S61" t="n">
-        <v>0.3359026377052021</v>
+        <v>0.3359026377052022</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>0.7399358910109363</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.01903774327166535</v>
+        <v>0.01903774327166534</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>5.227930251292287</v>
+        <v>5.227930251292286</v>
       </c>
       <c r="J62" t="n">
         <v>1.592624973141727</v>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>5.912285690652466</v>
+        <v>5.912285690652467</v>
       </c>
       <c r="G63" t="n">
         <v>2.748811797469888</v>
@@ -5671,16 +5671,16 @@
         <v>9.832810553790566</v>
       </c>
       <c r="M63" t="n">
-        <v>0.9470981273954595</v>
+        <v>0.9470981273954593</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0001316343727324079</v>
+        <v>0.0001316343727324084</v>
       </c>
       <c r="O63" t="n">
         <v>4.143854141059259</v>
       </c>
       <c r="P63" t="n">
-        <v>0.3054611335740858</v>
+        <v>0.3054611335740856</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -5689,16 +5689,16 @@
         <v>1.597769671766005</v>
       </c>
       <c r="S63" t="n">
-        <v>0.09394370396646112</v>
+        <v>0.09394370396646123</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0.6678132672687194</v>
+        <v>0.6678132672687196</v>
       </c>
       <c r="V63" t="n">
-        <v>0.0209585105085183</v>
+        <v>0.02095851050851824</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -5707,13 +5707,13 @@
         <v>0.3102330109923787</v>
       </c>
       <c r="Y63" t="n">
-        <v>-0.000878519150118974</v>
+        <v>-0.0008785191501189879</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.08429799079539146</v>
+        <v>0.08429799079539141</v>
       </c>
     </row>
     <row r="64">
@@ -5733,19 +5733,19 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2.171619774303988</v>
+        <v>2.171619774303989</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9367825426965285</v>
+        <v>0.9367825426965286</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>4.205538972873699</v>
+        <v>4.205538972873698</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5777819257911513</v>
+        <v>0.5777819257911512</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -5754,16 +5754,16 @@
         <v>2.320551467234601</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.1645884517247393</v>
+        <v>-0.1645884517247398</v>
       </c>
       <c r="N64" t="n">
         <v>-0.001909908220496855</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.6979608932065</v>
+        <v>-0.6979608932065009</v>
       </c>
       <c r="P64" t="n">
-        <v>0.2008488202219195</v>
+        <v>0.2008488202219194</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4961059455756334</v>
+        <v>-0.4961059455756343</v>
       </c>
       <c r="G65" t="n">
         <v>0.4013290129810447</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1.580328949596104</v>
+        <v>1.580328949596106</v>
       </c>
       <c r="J65" t="n">
         <v>1.613659771971721</v>
@@ -5840,7 +5840,7 @@
         <v>2.791290657638807</v>
       </c>
       <c r="N65" t="n">
-        <v>0.003606560212899405</v>
+        <v>0.003606560212899404</v>
       </c>
       <c r="O65" t="n">
         <v>11.93516590245667</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>3.577553834959699</v>
+        <v>3.577553834959698</v>
       </c>
       <c r="V65" t="n">
         <v>0.3022053767324586</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>3.735454867895068</v>
+        <v>3.735454867895069</v>
       </c>
       <c r="G66" t="n">
         <v>1.862443424489946</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>7.971416528361274</v>
+        <v>7.971416528361273</v>
       </c>
       <c r="J66" t="n">
         <v>1.658972372976296</v>
@@ -5920,16 +5920,16 @@
         <v>6.888419085485112</v>
       </c>
       <c r="M66" t="n">
-        <v>0.7436632952142606</v>
+        <v>0.7436632952142603</v>
       </c>
       <c r="N66" t="n">
-        <v>0.000155101912844576</v>
+        <v>0.0001551019128445761</v>
       </c>
       <c r="O66" t="n">
         <v>3.182403994418979</v>
       </c>
       <c r="P66" t="n">
-        <v>0.403407340003</v>
+        <v>0.4034073400029999</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -5953,10 +5953,10 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>0.7562455829343772</v>
+        <v>0.7562455829343773</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.0286507381111154</v>
+        <v>0.02865073811111539</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
@@ -6006,13 +6006,13 @@
         <v>1.049319207421973</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.000431869318469349</v>
+        <v>-0.0004318693184693487</v>
       </c>
       <c r="O67" t="n">
         <v>4.622727686624226</v>
       </c>
       <c r="P67" t="n">
-        <v>0.6630017190559951</v>
+        <v>0.663001719055995</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         <v>1.024174716870333</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.0402736431920392</v>
+        <v>0.04027364319203919</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0003970312045152302</v>
+        <v>0.0003970312045151747</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.01506837636448899</v>
+        <v>-0.01506837636448854</v>
       </c>
       <c r="G68" t="n">
         <v>0.3160313027030384</v>
@@ -6086,13 +6086,13 @@
         <v>2.139771202333645</v>
       </c>
       <c r="M68" t="n">
-        <v>0.5791245872864493</v>
+        <v>0.5791245872864491</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0002619162380440449</v>
+        <v>0.000261916238044045</v>
       </c>
       <c r="O68" t="n">
-        <v>2.357814754998341</v>
+        <v>2.35781475499834</v>
       </c>
       <c r="P68" t="n">
         <v>0.6667085252320823</v>
@@ -6101,10 +6101,10 @@
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>2.885866419164398</v>
+        <v>2.885866419164397</v>
       </c>
       <c r="S68" t="n">
-        <v>0.5686760033358355</v>
+        <v>0.5686760033358353</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
@@ -6122,13 +6122,13 @@
         <v>1.541536443173127</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.07820115192008496</v>
+        <v>0.07820115192008498</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.4947882309793933</v>
+        <v>0.4947882309793934</v>
       </c>
     </row>
     <row r="69">
@@ -6175,7 +6175,7 @@
         <v>0.002871662736999055</v>
       </c>
       <c r="O69" t="n">
-        <v>9.430536938640742</v>
+        <v>9.430536938640744</v>
       </c>
       <c r="P69" t="n">
         <v>1.058078048186137</v>
@@ -6205,7 +6205,7 @@
         <v>0.6882410698030442</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.008314899185527531</v>
+        <v>0.008314899185527524</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -6225,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.1078795008073536</v>
+        <v>-0.1078795008073537</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.4763912897534759</v>
+        <v>-0.4763912897534766</v>
       </c>
       <c r="G70" t="n">
         <v>-0.1299052529918584</v>
@@ -6240,10 +6240,10 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.385602771380142</v>
+        <v>-0.3856027713801429</v>
       </c>
       <c r="J70" t="n">
-        <v>0.3187905079473285</v>
+        <v>0.3187905079473287</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -6255,13 +6255,13 @@
         <v>0.8969949152540314</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.0006901536239580591</v>
+        <v>-0.0006901536239580594</v>
       </c>
       <c r="O70" t="n">
-        <v>3.90071431276643</v>
+        <v>3.900714312766429</v>
       </c>
       <c r="P70" t="n">
-        <v>0.939718218225864</v>
+        <v>0.9397182182258641</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.229684741452689</v>
+        <v>-2.22968474145269</v>
       </c>
       <c r="G71" t="n">
         <v>-0.52025939179207</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-2.182787200977117</v>
+        <v>-2.182787200977115</v>
       </c>
       <c r="J71" t="n">
         <v>0.5454407979566165</v>
@@ -6335,7 +6335,7 @@
         <v>2.432073667740448</v>
       </c>
       <c r="M71" t="n">
-        <v>1.870824494939937</v>
+        <v>1.870824494939938</v>
       </c>
       <c r="N71" t="n">
         <v>0.001906648710246153</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>3.890793496588026</v>
+        <v>3.890793496588025</v>
       </c>
       <c r="V71" t="n">
         <v>0.4360274642154499</v>
@@ -6371,7 +6371,7 @@
         <v>1.97262219591047</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.08905934412576311</v>
+        <v>0.08905934412576313</v>
       </c>
       <c r="Z71" t="n">
         <v>0</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.118832998672878</v>
+        <v>-0.1188329986728782</v>
       </c>
       <c r="G72" t="n">
         <v>0.3431063804556064</v>
@@ -6406,10 +6406,10 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1.50423951864953</v>
+        <v>1.504239518649531</v>
       </c>
       <c r="J72" t="n">
-        <v>0.8918144144650023</v>
+        <v>0.8918144144650022</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -6454,13 +6454,13 @@
         <v>1.525226751249686</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.06858815708063491</v>
+        <v>0.06858815708063493</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.4471729144633394</v>
+        <v>0.4471729144633393</v>
       </c>
     </row>
   </sheetData>
